--- a/template.xlsx
+++ b/template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jakebeal/projects/SD2/PAML/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5BF7213-50BE-074E-94F0-DEAFA4C4BB5A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDB03E02-C5C6-CC40-93D3-E335F4DB5511}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9560" yWindow="5640" windowWidth="26040" windowHeight="14940" xr2:uid="{CDC4105F-3E49-B14F-B864-2544DE3AC9F6}"/>
   </bookViews>
@@ -27,9 +27,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
-    <t>Blue = Do not change; Green = free text</t>
-  </si>
-  <si>
     <t>Person Executing</t>
   </si>
   <si>
@@ -40,6 +37,9 @@
   </si>
   <si>
     <t>Protocol Execution Record:</t>
+  </si>
+  <si>
+    <t>Green cells are entry locations. Any text outside these locations will be ignored</t>
   </si>
 </sst>
 </file>
@@ -141,6 +141,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -150,7 +151,6 @@
     <xf numFmtId="14" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -468,7 +468,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -478,37 +478,37 @@
   <sheetData>
     <row r="1" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
-      <c r="D1" s="6"/>
+      <c r="D1" s="3"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="4"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
